--- a/Documents/Tableaux pour rapport pfe.xlsx
+++ b/Documents/Tableaux pour rapport pfe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Risk-based-solvency\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B55302-7984-4F74-8647-AC71EF7159FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ECDA2D-0B56-4674-9221-5C578BE7164B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{D5827944-E31C-4FA7-A6E0-3785F75C12DC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="146">
   <si>
     <t>Concentration</t>
   </si>
@@ -444,13 +444,47 @@
   </si>
   <si>
     <t>Inférieure à Ba</t>
+  </si>
+  <si>
+    <t>Supérieur à 21%</t>
+  </si>
+  <si>
+    <t>]14,6% ; 21%]</t>
+  </si>
+  <si>
+    <t>]11,4% ; 14,6%]</t>
+  </si>
+  <si>
+    <t>]9% ; 11,4%]</t>
+  </si>
+  <si>
+    <t>Inférieur ou égale à 9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilité de défaut
+annuelle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,010% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,050% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,240% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,200% </t>
+  </si>
+  <si>
+    <t>4,200%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,18 +497,6 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -496,6 +518,11 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
@@ -552,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -579,32 +606,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2727,10 +2748,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32546A51-FC58-403F-8AED-EDE74F87ED94}">
-  <dimension ref="B2:O17"/>
+  <dimension ref="B2:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2741,219 +2762,288 @@
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="13" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+    <row r="2" spans="2:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12"/>
+      <c r="C2" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="H2" s="19" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="H2" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-    </row>
-    <row r="3" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="R2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2" s="13">
+        <v>1</v>
+      </c>
+      <c r="X2" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="13">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="19">
-        <v>1</v>
-      </c>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="15">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="13" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="20">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="R3" s="13">
+        <v>1</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="15">
         <v>2</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="L4" s="12">
-        <v>1</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="L4" s="13">
+        <v>1</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="13" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="20">
+      <c r="R4" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="S4" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="15">
         <v>3</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="13">
         <v>2</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
+      <c r="R5" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="S5" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="15">
         <v>4</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="13" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
+      <c r="L6" s="13">
+        <v>3</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" s="13">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="S6" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="15">
         <v>5</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="12">
-        <v>3</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
+      <c r="L7" s="13">
+        <v>4</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="R7" s="13">
         <v>5</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="S7" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="12">
-        <v>4</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="L9" s="12">
+      <c r="L8" s="13">
         <v>5</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M8" s="13" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="N15" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="N16" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="14:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="N17" s="12" t="s">
+      <c r="N8" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="O8" s="13" t="s">
         <v>134</v>
       </c>
     </row>

--- a/Documents/Tableaux pour rapport pfe.xlsx
+++ b/Documents/Tableaux pour rapport pfe.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Risk-based-solvency\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ECDA2D-0B56-4674-9221-5C578BE7164B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8081AAC-5659-4B82-AD33-3A0EAB0F960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{D5827944-E31C-4FA7-A6E0-3785F75C12DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5827944-E31C-4FA7-A6E0-3785F75C12DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Coeff Correlation" sheetId="1" r:id="rId1"/>
     <sheet name="Abreviation" sheetId="2" r:id="rId2"/>
     <sheet name="Tringl CL" sheetId="3" r:id="rId3"/>
-    <sheet name="Annexe" sheetId="4" r:id="rId4"/>
+    <sheet name="Class Maroc" sheetId="5" r:id="rId4"/>
+    <sheet name="Annexe" sheetId="4" r:id="rId5"/>
+    <sheet name="Valor Actif" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="179">
   <si>
     <t>Concentration</t>
   </si>
@@ -478,13 +480,125 @@
   </si>
   <si>
     <t>4,200%</t>
+  </si>
+  <si>
+    <t>Pays</t>
+  </si>
+  <si>
+    <t>Evolution 2002/2021</t>
+  </si>
+  <si>
+    <t>Afrique du sud</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Nigéria</t>
+  </si>
+  <si>
+    <t>Namibie</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <r>
+      <t>Ghana </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8.25"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Autres pays</t>
+  </si>
+  <si>
+    <t>Maroc</t>
+  </si>
+  <si>
+    <t>Actif</t>
+  </si>
+  <si>
+    <t>Valorisation</t>
+  </si>
+  <si>
+    <t>Actions cotées à la bourse</t>
+  </si>
+  <si>
+    <t>Dernier cours coté</t>
+  </si>
+  <si>
+    <t>Titres OPCVM et OPCI</t>
+  </si>
+  <si>
+    <t>Dernière valeur liquidative</t>
+  </si>
+  <si>
+    <t>Titres OPCC et FPCT</t>
+  </si>
+  <si>
+    <t>Dernière valeur connue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titres de créances négociables , obligations et bons </t>
+  </si>
+  <si>
+    <t>Valeur de marché</t>
+  </si>
+  <si>
+    <t>Immobilisations corporelles</t>
+  </si>
+  <si>
+    <t>Valeur comptable</t>
+  </si>
+  <si>
+    <t>Autres créances</t>
+  </si>
+  <si>
+    <t>Immobilisations en non valeur</t>
+  </si>
+  <si>
+    <t>Valeur nulle</t>
+  </si>
+  <si>
+    <t>Immobilisations incorporelles</t>
+  </si>
+  <si>
+    <t>Actifs immobiliers hors OPCI</t>
+  </si>
+  <si>
+    <t>Valeur de transaction ( sinon valeur comptable )</t>
+  </si>
+  <si>
+    <t>Autres actifs</t>
+  </si>
+  <si>
+    <t>Valeur d’expert (sinon valeur comptable )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,8 +640,48 @@
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="8.25"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.8000000000000007"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,8 +694,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF980602"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -575,11 +753,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -621,11 +812,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,6 +860,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF980602"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1658,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F435F5BF-2D84-43EE-87FB-873C94F51DF3}">
   <dimension ref="B2:U9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2747,10 +2979,378 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0D276E-AFA2-4B98-AF8B-D6945189F4A2}">
+  <dimension ref="C2:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="22">
+        <v>2002</v>
+      </c>
+      <c r="E2" s="22">
+        <v>2006</v>
+      </c>
+      <c r="F2" s="22">
+        <v>2010</v>
+      </c>
+      <c r="G2" s="22">
+        <v>2014</v>
+      </c>
+      <c r="H2" s="22">
+        <v>2018</v>
+      </c>
+      <c r="I2" s="22">
+        <v>2019</v>
+      </c>
+      <c r="J2" s="22">
+        <v>2020</v>
+      </c>
+      <c r="K2" s="22">
+        <v>2021</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="24">
+        <v>19575</v>
+      </c>
+      <c r="E3" s="24">
+        <v>40743</v>
+      </c>
+      <c r="F3" s="24">
+        <v>48575</v>
+      </c>
+      <c r="G3" s="24">
+        <v>50502</v>
+      </c>
+      <c r="H3" s="24">
+        <v>49002</v>
+      </c>
+      <c r="I3" s="24">
+        <v>46421</v>
+      </c>
+      <c r="J3" s="24">
+        <v>41110</v>
+      </c>
+      <c r="K3" s="24">
+        <v>51215</v>
+      </c>
+      <c r="L3" s="25">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1095</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1675</v>
+      </c>
+      <c r="F4" s="19">
+        <v>2599</v>
+      </c>
+      <c r="G4" s="19">
+        <v>3156</v>
+      </c>
+      <c r="H4" s="19">
+        <v>4323</v>
+      </c>
+      <c r="I4" s="19">
+        <v>4628</v>
+      </c>
+      <c r="J4" s="19">
+        <v>5036</v>
+      </c>
+      <c r="K4" s="19">
+        <v>5330</v>
+      </c>
+      <c r="L4" s="20">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C5" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="26">
+        <v>369</v>
+      </c>
+      <c r="E5" s="26">
+        <v>575</v>
+      </c>
+      <c r="F5" s="26">
+        <v>998</v>
+      </c>
+      <c r="G5" s="24">
+        <v>1766</v>
+      </c>
+      <c r="H5" s="24">
+        <v>2098</v>
+      </c>
+      <c r="I5" s="24">
+        <v>2229</v>
+      </c>
+      <c r="J5" s="24">
+        <v>2120</v>
+      </c>
+      <c r="K5" s="24">
+        <v>2424</v>
+      </c>
+      <c r="L5" s="25">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="21">
+        <v>388</v>
+      </c>
+      <c r="E6" s="21">
+        <v>712</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1340</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1792</v>
+      </c>
+      <c r="H6" s="19">
+        <v>1168</v>
+      </c>
+      <c r="I6" s="19">
+        <v>1393</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1213</v>
+      </c>
+      <c r="K6" s="19">
+        <v>1581</v>
+      </c>
+      <c r="L6" s="20">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="26">
+        <v>321</v>
+      </c>
+      <c r="E7" s="26">
+        <v>563</v>
+      </c>
+      <c r="F7" s="26">
+        <v>887</v>
+      </c>
+      <c r="G7" s="26">
+        <v>995</v>
+      </c>
+      <c r="H7" s="24">
+        <v>1026</v>
+      </c>
+      <c r="I7" s="24">
+        <v>1305</v>
+      </c>
+      <c r="J7" s="26">
+        <v>788</v>
+      </c>
+      <c r="K7" s="26">
+        <v>867</v>
+      </c>
+      <c r="L7" s="25">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="21">
+        <v>177</v>
+      </c>
+      <c r="E8" s="21">
+        <v>288</v>
+      </c>
+      <c r="F8" s="21">
+        <v>398</v>
+      </c>
+      <c r="G8" s="21">
+        <v>457</v>
+      </c>
+      <c r="H8" s="21">
+        <v>629</v>
+      </c>
+      <c r="I8" s="21">
+        <v>671</v>
+      </c>
+      <c r="J8" s="21">
+        <v>778</v>
+      </c>
+      <c r="K8" s="21">
+        <v>806</v>
+      </c>
+      <c r="L8" s="20">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="26">
+        <v>165</v>
+      </c>
+      <c r="F9" s="26">
+        <v>306</v>
+      </c>
+      <c r="G9" s="26">
+        <v>385</v>
+      </c>
+      <c r="H9" s="26">
+        <v>605</v>
+      </c>
+      <c r="I9" s="26">
+        <v>610</v>
+      </c>
+      <c r="J9" s="26">
+        <v>669</v>
+      </c>
+      <c r="K9" s="26">
+        <v>789</v>
+      </c>
+      <c r="L9" s="25">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="21">
+        <v>207</v>
+      </c>
+      <c r="E10" s="21">
+        <v>318</v>
+      </c>
+      <c r="F10" s="21">
+        <v>508</v>
+      </c>
+      <c r="G10" s="21">
+        <v>779</v>
+      </c>
+      <c r="H10" s="21">
+        <v>627</v>
+      </c>
+      <c r="I10" s="21">
+        <v>516</v>
+      </c>
+      <c r="J10" s="21">
+        <v>533</v>
+      </c>
+      <c r="K10" s="21">
+        <v>523</v>
+      </c>
+      <c r="L10" s="20">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="26">
+        <v>129</v>
+      </c>
+      <c r="E11" s="26">
+        <v>680</v>
+      </c>
+      <c r="F11" s="26">
+        <v>828</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1055</v>
+      </c>
+      <c r="H11" s="26">
+        <v>450</v>
+      </c>
+      <c r="I11" s="26">
+        <v>374</v>
+      </c>
+      <c r="J11" s="26">
+        <v>338</v>
+      </c>
+      <c r="K11" s="26">
+        <v>494</v>
+      </c>
+      <c r="L11" s="25">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="19">
+        <v>1278</v>
+      </c>
+      <c r="E12" s="19">
+        <v>2019</v>
+      </c>
+      <c r="F12" s="19">
+        <v>3045</v>
+      </c>
+      <c r="G12" s="19">
+        <v>12385</v>
+      </c>
+      <c r="H12" s="19">
+        <v>13769</v>
+      </c>
+      <c r="I12" s="19">
+        <v>13763</v>
+      </c>
+      <c r="J12" s="19">
+        <v>14332</v>
+      </c>
+      <c r="K12" s="19">
+        <v>15491</v>
+      </c>
+      <c r="L12" s="20">
+        <v>11.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32546A51-FC58-403F-8AED-EDE74F87ED94}">
   <dimension ref="B2:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
@@ -2771,11 +3371,11 @@
   <sheetData>
     <row r="2" spans="2:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="15" t="s">
         <v>122</v>
       </c>
@@ -2783,11 +3383,11 @@
         <v>123</v>
       </c>
       <c r="L2" s="13"/>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
       <c r="R2" s="13" t="s">
         <v>122</v>
       </c>
@@ -2835,7 +3435,7 @@
       <c r="L3" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="17" t="s">
         <v>110</v>
       </c>
       <c r="N3" s="13" t="s">
@@ -3055,4 +3655,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533F3004-1337-4F3A-9F24-2AB907A4AD70}">
+  <dimension ref="C2:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="60.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C2" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>